--- a/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>11824</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5520</v>
+        <v>6206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22482</v>
+        <v>21150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01147049503928681</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005355323510215346</v>
+        <v>0.006019916572780884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02180984950414983</v>
+        <v>0.02051745611329631</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>16672</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10226</v>
+        <v>9421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27734</v>
+        <v>27510</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01267734646391633</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007775734073891147</v>
+        <v>0.007163782801599599</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02108894530460423</v>
+        <v>0.02091870529269575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -785,19 +785,19 @@
         <v>28496</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18590</v>
+        <v>19798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42209</v>
+        <v>44111</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01214704219526118</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007924223463031385</v>
+        <v>0.008439211278077136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01799235016390724</v>
+        <v>0.01880314540452854</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>86778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72118</v>
+        <v>69065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105882</v>
+        <v>104937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0841822883033527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06996104809391751</v>
+        <v>0.06699885525611478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.10271488085318</v>
+        <v>0.1017978543320461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -835,19 +835,19 @@
         <v>101876</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84313</v>
+        <v>83457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>122752</v>
+        <v>122989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07746588327222032</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06411076001538377</v>
+        <v>0.06345982048471505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09333942816247866</v>
+        <v>0.0935200472256264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>188</v>
@@ -856,19 +856,19 @@
         <v>188655</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161444</v>
+        <v>162523</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215765</v>
+        <v>216916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0804171481796797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06881838218397252</v>
+        <v>0.06927807818408313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09197334275809239</v>
+        <v>0.09246402335075161</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>585190</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>553694</v>
+        <v>555465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>618563</v>
+        <v>616419</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5676846066181237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5371307891479958</v>
+        <v>0.5388489088757377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.600059223594307</v>
+        <v>0.5979793621831927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>778</v>
@@ -906,19 +906,19 @@
         <v>793579</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>760892</v>
+        <v>759376</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>827866</v>
+        <v>827186</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.603430493488442</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5785753737932731</v>
+        <v>0.5774227995134515</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.629502146383519</v>
+        <v>0.6289847902011497</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1365</v>
@@ -927,19 +927,19 @@
         <v>1378770</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1330021</v>
+        <v>1330526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1428664</v>
+        <v>1428729</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5877233434554433</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5669433119980157</v>
+        <v>0.5671585942136518</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6089916777425414</v>
+        <v>0.6090194060327936</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>328950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298453</v>
+        <v>301131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>359208</v>
+        <v>360450</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3191096068404043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2895253017271797</v>
+        <v>0.292123029943346</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3484624520296175</v>
+        <v>0.3496669330191723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>376</v>
@@ -977,19 +977,19 @@
         <v>380857</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>346361</v>
+        <v>348536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>410102</v>
+        <v>415865</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2895999404381426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2633694983128284</v>
+        <v>0.2650236788278674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3118377662273741</v>
+        <v>0.316220297112387</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>708</v>
@@ -998,19 +998,19 @@
         <v>709807</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>665562</v>
+        <v>667821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>755920</v>
+        <v>751739</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3025668241326396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2837070087371009</v>
+        <v>0.2846698012362799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.322223225794224</v>
+        <v>0.320441025192792</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>18094</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11124</v>
+        <v>10490</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26299</v>
+        <v>27057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0175530031988325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0107914524114808</v>
+        <v>0.01017602676028394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02551227510975548</v>
+        <v>0.02624758466841419</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1048,19 +1048,19 @@
         <v>22129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13830</v>
+        <v>13394</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33618</v>
+        <v>32798</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01682633633727878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01051617134810207</v>
+        <v>0.01018485685343397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02556252065641734</v>
+        <v>0.02493933479249267</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -1069,19 +1069,19 @@
         <v>40223</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28136</v>
+        <v>29490</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53576</v>
+        <v>52883</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01714564203697622</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01199358230965088</v>
+        <v>0.01257064166094478</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02283771694262627</v>
+        <v>0.02254234327942222</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>18560</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10950</v>
+        <v>11599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28486</v>
+        <v>29117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01096013136052774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006466319828421733</v>
+        <v>0.00684973916133841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01682157749449065</v>
+        <v>0.01719422079105213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1194,19 +1194,19 @@
         <v>22263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14208</v>
+        <v>15319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33100</v>
+        <v>33003</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01405098979416472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008966963316919528</v>
+        <v>0.009668645267424206</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02089074826344598</v>
+        <v>0.0208295312685203</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -1215,19 +1215,19 @@
         <v>40823</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28800</v>
+        <v>29940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54280</v>
+        <v>54779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01245418765843859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008786209570139973</v>
+        <v>0.009133992962120967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0165595466816535</v>
+        <v>0.01671176386892382</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>236977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>208488</v>
+        <v>210083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265227</v>
+        <v>265782</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1399403383451659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1231171767285751</v>
+        <v>0.1240588554241407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1566227881643227</v>
+        <v>0.1569502655022049</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1265,19 +1265,19 @@
         <v>156375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136547</v>
+        <v>132159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179317</v>
+        <v>181082</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0986932455800356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0861796211873755</v>
+        <v>0.0834098322784068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.11317273287858</v>
+        <v>0.114287232772872</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>387</v>
@@ -1286,19 +1286,19 @@
         <v>393351</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>359471</v>
+        <v>353835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>437304</v>
+        <v>429499</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1200023567004544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1096661453396933</v>
+        <v>0.1079467826585074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1334112865794719</v>
+        <v>0.1310300444104064</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>1009887</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>968210</v>
+        <v>969535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1049658</v>
+        <v>1051508</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5963619104774114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5717508654305468</v>
+        <v>0.5725331456425573</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6198478260063216</v>
+        <v>0.6209402811348556</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>982</v>
@@ -1336,19 +1336,19 @@
         <v>1001712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>960518</v>
+        <v>962065</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1040152</v>
+        <v>1035876</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6322142416349638</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.606215103951067</v>
+        <v>0.6071915282685802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6564752291483713</v>
+        <v>0.6537761719878179</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1967</v>
@@ -1357,19 +1357,19 @@
         <v>2011599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1954619</v>
+        <v>1956462</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2067600</v>
+        <v>2068378</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.613692177233659</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5963088891101751</v>
+        <v>0.5968711192790165</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6307767232822475</v>
+        <v>0.6310143082165708</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>405021</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>370341</v>
+        <v>368774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>440469</v>
+        <v>439366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2391743704057044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2186951470657085</v>
+        <v>0.2177694981175973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2601073336244661</v>
+        <v>0.2594556282726979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>374</v>
@@ -1407,19 +1407,19 @@
         <v>384468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>351061</v>
+        <v>352240</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>422462</v>
+        <v>420875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2426506614891224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2215664346419719</v>
+        <v>0.2223104113686281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.26662981797649</v>
+        <v>0.265628558438974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>764</v>
@@ -1428,19 +1428,19 @@
         <v>789489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>738279</v>
+        <v>739030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>838796</v>
+        <v>835892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2408547367822519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2252316834146313</v>
+        <v>0.2254610157749334</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2558970902542659</v>
+        <v>0.2550111927545273</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>22968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15280</v>
+        <v>15045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34440</v>
+        <v>34105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01356324941119063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009023138680054089</v>
+        <v>0.008884236146001251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02033753915123394</v>
+        <v>0.02013984644392897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1478,19 +1478,19 @@
         <v>19633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11798</v>
+        <v>12501</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29923</v>
+        <v>29508</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01239086150171352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007445968181030832</v>
+        <v>0.007889526425403018</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01888546751710039</v>
+        <v>0.01862355007522036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -1499,19 +1499,19 @@
         <v>42601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30999</v>
+        <v>31399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56600</v>
+        <v>59029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01299654162519614</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009457018399039107</v>
+        <v>0.009579200551020498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01726722001602258</v>
+        <v>0.01800828965554916</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>7893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3627</v>
+        <v>3788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14775</v>
+        <v>15828</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01431458613929789</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006578334556596705</v>
+        <v>0.006869133931794268</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02679442778937442</v>
+        <v>0.02870548681375015</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1624,19 +1624,19 @@
         <v>8495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4042</v>
+        <v>4176</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15276</v>
+        <v>17621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01783031995126626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008485239029974844</v>
+        <v>0.008766241436390902</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03206532397165636</v>
+        <v>0.03698737718559784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1645,19 +1645,19 @@
         <v>16388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10238</v>
+        <v>8718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26578</v>
+        <v>25496</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0159441878169886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009960569966674007</v>
+        <v>0.008481725655370434</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02585896790046216</v>
+        <v>0.02480588250583805</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>92737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76481</v>
+        <v>75901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111002</v>
+        <v>111597</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1681830323170533</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1387012175849338</v>
+        <v>0.1376500047605327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2013057999940579</v>
+        <v>0.2023855209718916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -1695,19 +1695,19 @@
         <v>43398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32230</v>
+        <v>32034</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57342</v>
+        <v>57285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0910928516155026</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06765130025006631</v>
+        <v>0.06723964899488104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1203621840210064</v>
+        <v>0.1202416229982235</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -1716,19 +1716,19 @@
         <v>136135</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115732</v>
+        <v>116168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160493</v>
+        <v>157118</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1324504386328937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1125992513185242</v>
+        <v>0.1130239740606214</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.156149077086093</v>
+        <v>0.1528649294936402</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>342426</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>319524</v>
+        <v>318453</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>365970</v>
+        <v>365229</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6210035193776211</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5794686788430125</v>
+        <v>0.5775262394638069</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6637012225204814</v>
+        <v>0.6623561988669351</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>304</v>
@@ -1766,19 +1766,19 @@
         <v>320438</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>295880</v>
+        <v>300191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>339191</v>
+        <v>340156</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6726075353958372</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6210592556959253</v>
+        <v>0.6301084743492816</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7119703451156069</v>
+        <v>0.7139945507622351</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>634</v>
@@ -1787,19 +1787,19 @@
         <v>662865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>630249</v>
+        <v>630342</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>693362</v>
+        <v>691760</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6449228476249952</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6131904981521874</v>
+        <v>0.6132805873136998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6745950137973525</v>
+        <v>0.6730365874584006</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>102164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84480</v>
+        <v>84012</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122654</v>
+        <v>120625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1852792634257923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1532083877105909</v>
+        <v>0.1523583476811163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2224384900026514</v>
+        <v>0.2187578310178613</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -1837,19 +1837,19 @@
         <v>98089</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82881</v>
+        <v>82279</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118410</v>
+        <v>116129</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2058907486612732</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1739699027910902</v>
+        <v>0.1727048457262138</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2485460564902374</v>
+        <v>0.2437570331427867</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>188</v>
@@ -1858,19 +1858,19 @@
         <v>200253</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176588</v>
+        <v>175950</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226215</v>
+        <v>225999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1948330330556471</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1718083141390001</v>
+        <v>0.1711873791701498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2200919579085674</v>
+        <v>0.2198815035077013</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>6187</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2274</v>
+        <v>1771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13952</v>
+        <v>14002</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01121959874023536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004124469709818582</v>
+        <v>0.003211535497803797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02530268371475583</v>
+        <v>0.02539388546614965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1908,19 +1908,19 @@
         <v>5993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2807</v>
+        <v>2848</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12939</v>
+        <v>12510</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01257854437612082</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005891288639384974</v>
+        <v>0.005977221674381978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02715916565787566</v>
+        <v>0.02625836708065495</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1929,19 +1929,19 @@
         <v>12179</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6455</v>
+        <v>6263</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21674</v>
+        <v>20303</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01184949286947535</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006280067971620472</v>
+        <v>0.006093951000134787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02108757792032011</v>
+        <v>0.01975305485005814</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>38277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27437</v>
+        <v>27770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54113</v>
+        <v>53404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.011685413146105</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008375900668696439</v>
+        <v>0.008477773284677527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01651978972038021</v>
+        <v>0.01630331228547549</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -2054,19 +2054,19 @@
         <v>47430</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34382</v>
+        <v>34206</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63616</v>
+        <v>61879</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01404921879361999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0101841778618978</v>
+        <v>0.01013212670872046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0188436415041565</v>
+        <v>0.01832917649505444</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -2075,19 +2075,19 @@
         <v>85707</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68142</v>
+        <v>68322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106474</v>
+        <v>107103</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01288514093119944</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01024442590240466</v>
+        <v>0.01027144621570809</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01600719372512768</v>
+        <v>0.01610172087670169</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>416492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>379485</v>
+        <v>380729</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>458090</v>
+        <v>455050</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1271477262642809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1158499833455272</v>
+        <v>0.1162296622829518</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1398468603305908</v>
+        <v>0.1389186430978059</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>295</v>
@@ -2125,19 +2125,19 @@
         <v>301649</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>268211</v>
+        <v>265722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>334608</v>
+        <v>332344</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08935156150686087</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07944710992163612</v>
+        <v>0.07870984700184046</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0991144216446386</v>
+        <v>0.0984439272519993</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>705</v>
@@ -2146,19 +2146,19 @@
         <v>718141</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>670718</v>
+        <v>665949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>771900</v>
+        <v>766615</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1079646309547515</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1008350952425225</v>
+        <v>0.1001181478978053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1160467663254496</v>
+        <v>0.1152521620633856</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>1937503</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1881240</v>
+        <v>1879900</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1992719</v>
+        <v>1989413</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5914853177933581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5743093669032893</v>
+        <v>0.5739001301943232</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6083416312359781</v>
+        <v>0.607332634016902</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2064</v>
@@ -2196,19 +2196,19 @@
         <v>2115729</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2055473</v>
+        <v>2058032</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2168516</v>
+        <v>2168128</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.626701748829093</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6088532418472118</v>
+        <v>0.6096111161725647</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6423376593135348</v>
+        <v>0.6422227137903231</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3966</v>
@@ -2217,19 +2217,19 @@
         <v>4053232</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3967146</v>
+        <v>3972646</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4126014</v>
+        <v>4131923</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6093590930125051</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5964169166587774</v>
+        <v>0.5972437290776423</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6203009758103335</v>
+        <v>0.6211893323860322</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>836135</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>789765</v>
+        <v>790597</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>886647</v>
+        <v>889599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2552572515124371</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2411012877866377</v>
+        <v>0.2413553126452909</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2706774602481354</v>
+        <v>0.2715786964533132</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>843</v>
@@ -2267,19 +2267,19 @@
         <v>863413</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>813166</v>
+        <v>816891</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>917616</v>
+        <v>915610</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2557522824127247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2408685999602609</v>
+        <v>0.241971748225008</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2718076497459437</v>
+        <v>0.2712134937729807</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1660</v>
@@ -2288,19 +2288,19 @@
         <v>1699549</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1628092</v>
+        <v>1630204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1770580</v>
+        <v>1777786</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.255508499886507</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2447657420826131</v>
+        <v>0.2450832573135995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2661873715592537</v>
+        <v>0.2672707023309215</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>47249</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35389</v>
+        <v>35273</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62818</v>
+        <v>62063</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01442429128381885</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01080374652833734</v>
+        <v>0.01076811947743824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01917731097910834</v>
+        <v>0.01894667439956564</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2338,19 +2338,19 @@
         <v>47754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36340</v>
+        <v>36010</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63709</v>
+        <v>62307</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01414518845770146</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01076421062480087</v>
+        <v>0.01066642791183892</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01887130733673862</v>
+        <v>0.01845610430824304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>95</v>
@@ -2359,19 +2359,19 @@
         <v>95003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77475</v>
+        <v>78160</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>115716</v>
+        <v>116635</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01428263521503696</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01164758622865611</v>
+        <v>0.01175045647914678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01739664612219314</v>
+        <v>0.01753479269736205</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>12405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6360</v>
+        <v>6546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21331</v>
+        <v>21924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01276518435793134</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006544424032374339</v>
+        <v>0.006736532913664846</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02195127180595978</v>
+        <v>0.02256078585409693</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2723,19 +2723,19 @@
         <v>12811</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5870</v>
+        <v>6256</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22566</v>
+        <v>22694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009613254627753405</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004404899988896795</v>
+        <v>0.004694659686219995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01693352238429575</v>
+        <v>0.01703012363741899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2744,19 +2744,19 @@
         <v>25215</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16811</v>
+        <v>15668</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39160</v>
+        <v>36616</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01094243934752737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007295120187256118</v>
+        <v>0.006799074364342633</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01699363023919791</v>
+        <v>0.01588984889716828</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>68385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52560</v>
+        <v>53372</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85511</v>
+        <v>86691</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07037199233777314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05408775883867101</v>
+        <v>0.05492252206451444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08799559652868812</v>
+        <v>0.08921036355410426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -2794,19 +2794,19 @@
         <v>82443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66221</v>
+        <v>65402</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101512</v>
+        <v>100903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06186603128360643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04969270795408855</v>
+        <v>0.0490785093313619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07617561881922688</v>
+        <v>0.07571895119787354</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>139</v>
@@ -2815,19 +2815,19 @@
         <v>150828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126717</v>
+        <v>127564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>176990</v>
+        <v>176111</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0654530381105488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.054990000005165</v>
+        <v>0.05535762142473201</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07680627041897962</v>
+        <v>0.07642498684556534</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>599566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>569781</v>
+        <v>565973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>628722</v>
+        <v>631000</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6169888691331042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5863380551163008</v>
+        <v>0.5824191294428626</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6469917229406962</v>
+        <v>0.6493361260405304</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>767</v>
@@ -2865,19 +2865,19 @@
         <v>821728</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>787157</v>
+        <v>783486</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>857807</v>
+        <v>859902</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6166344118450574</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5906915131428102</v>
+        <v>0.5879366168705141</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6437081490648504</v>
+        <v>0.6452806703833833</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1325</v>
@@ -2886,19 +2886,19 @@
         <v>1421295</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1373589</v>
+        <v>1369685</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1469342</v>
+        <v>1466452</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6167838882774073</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5960814405016629</v>
+        <v>0.594387294772565</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6376344691894963</v>
+        <v>0.6363801626125632</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>265072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>237063</v>
+        <v>237978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>294556</v>
+        <v>297953</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2727744447610281</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2439519076911161</v>
+        <v>0.2448929670234386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.303115172893887</v>
+        <v>0.3066113681277858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>348</v>
@@ -2936,19 +2936,19 @@
         <v>373415</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>339895</v>
+        <v>339718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>404867</v>
+        <v>407194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2802150208437149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2550608733560444</v>
+        <v>0.2549285729986112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3038169249593073</v>
+        <v>0.3055631495308065</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>597</v>
@@ -2957,19 +2957,19 @@
         <v>638487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>597994</v>
+        <v>594981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>681240</v>
+        <v>685696</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2770772922513758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2595051545720766</v>
+        <v>0.2581976598988955</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2956304946324796</v>
+        <v>0.2975640104804791</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>26334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17243</v>
+        <v>17171</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39552</v>
+        <v>38425</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02709950941016319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01774367124591982</v>
+        <v>0.01766963440556037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04070180829323964</v>
+        <v>0.0395411293490462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -3007,19 +3007,19 @@
         <v>42205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30471</v>
+        <v>30476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56701</v>
+        <v>55966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03167128139986783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02286585199353103</v>
+        <v>0.02286963002082651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04254882530726985</v>
+        <v>0.04199736934944641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -3028,19 +3028,19 @@
         <v>68539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>53586</v>
+        <v>53956</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>87974</v>
+        <v>87450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02974334201314076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02325435141101606</v>
+        <v>0.02341467929309525</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03817727279253253</v>
+        <v>0.03794986649944048</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>27521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18604</v>
+        <v>17768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40148</v>
+        <v>39713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01403505985787453</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009487703508337579</v>
+        <v>0.009061188996161684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0204745311866197</v>
+        <v>0.02025267767061973</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3153,19 +3153,19 @@
         <v>34878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23338</v>
+        <v>22746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50488</v>
+        <v>49933</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01992771400580078</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01333450057985562</v>
+        <v>0.01299623263350303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02884646843037394</v>
+        <v>0.02852932829905127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -3174,19 +3174,19 @@
         <v>62399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46661</v>
+        <v>48867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81200</v>
+        <v>80318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01681416342665325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01257340303993741</v>
+        <v>0.01316787136966888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02188039779057297</v>
+        <v>0.02164284794483214</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>153910</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131600</v>
+        <v>131306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181607</v>
+        <v>181593</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0784913426135689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06711358624747364</v>
+        <v>0.06696383761010256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09261610253171408</v>
+        <v>0.09260925638205708</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>168</v>
@@ -3224,19 +3224,19 @@
         <v>176682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150820</v>
+        <v>153922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>203119</v>
+        <v>202567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1009478183742714</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0861716030943411</v>
+        <v>0.08794403025585711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1160529192435631</v>
+        <v>0.1157373115407712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>317</v>
@@ -3245,19 +3245,19 @@
         <v>330592</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>296521</v>
+        <v>296479</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>366503</v>
+        <v>368564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08908230389554474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07990142562858622</v>
+        <v>0.07989009725866807</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09875898142275716</v>
+        <v>0.09931424638705499</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>1195736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1152734</v>
+        <v>1151833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1241861</v>
+        <v>1241332</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6098029722755788</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5878729480506728</v>
+        <v>0.5874131761497456</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6333258806803994</v>
+        <v>0.6330561888224838</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>972</v>
@@ -3295,19 +3295,19 @@
         <v>1046954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1004499</v>
+        <v>1006115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1087000</v>
+        <v>1089086</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5981813820225711</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5739246578473766</v>
+        <v>0.5748480120197298</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6210621941039839</v>
+        <v>0.6222535294363359</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2104</v>
@@ -3316,19 +3316,19 @@
         <v>2242690</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2180646</v>
+        <v>2178705</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2302017</v>
+        <v>2305106</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6043219781197646</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5876034128310303</v>
+        <v>0.5870805856736742</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6203086295039668</v>
+        <v>0.6211408352686211</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>543410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>501713</v>
+        <v>502222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>583420</v>
+        <v>585118</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2771292099989617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2558641811593697</v>
+        <v>0.2561241011709224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2975331518125939</v>
+        <v>0.2983994781525574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>413</v>
@@ -3366,19 +3366,19 @@
         <v>442420</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>408865</v>
+        <v>405552</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>483117</v>
+        <v>478451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2527784895054322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2336065603892384</v>
+        <v>0.2317136272258913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2760307150589435</v>
+        <v>0.2733650713113894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>920</v>
@@ -3387,19 +3387,19 @@
         <v>985830</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>930100</v>
+        <v>929822</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1041785</v>
+        <v>1043067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2656448817952241</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2506275364983784</v>
+        <v>0.2505528019133926</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2807224916954369</v>
+        <v>0.2810681209263723</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>40279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29000</v>
+        <v>28951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54433</v>
+        <v>53265</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02054141525401607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01478921238621996</v>
+        <v>0.01476424057993705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02775963972965234</v>
+        <v>0.02716424101451461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -3437,19 +3437,19 @@
         <v>49294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36706</v>
+        <v>37118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66941</v>
+        <v>66180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02816459609192446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02097221134733724</v>
+        <v>0.02120723923761032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03824721807323038</v>
+        <v>0.03781234984025954</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -3458,19 +3458,19 @@
         <v>89573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>71632</v>
+        <v>70708</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>111415</v>
+        <v>110660</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02413667276281327</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01930230093138792</v>
+        <v>0.01905307459209448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0300221583959952</v>
+        <v>0.02981887679382568</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>7588</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3750</v>
+        <v>3721</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14641</v>
+        <v>14235</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01583536834871625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00782705929934999</v>
+        <v>0.007766477994118393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03055640553782436</v>
+        <v>0.02970814793236095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3583,19 +3583,19 @@
         <v>14185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8281</v>
+        <v>8071</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23418</v>
+        <v>22644</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03100775604604413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01810255314371</v>
+        <v>0.01764184502294531</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05118940522655509</v>
+        <v>0.04949872717199159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -3604,19 +3604,19 @@
         <v>21773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14116</v>
+        <v>13466</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31533</v>
+        <v>32554</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02324596891748411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01507074736895825</v>
+        <v>0.0143777400253842</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03366694417205957</v>
+        <v>0.03475733246654388</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>59341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45814</v>
+        <v>45105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76619</v>
+        <v>75345</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1238456904048661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0956149112406585</v>
+        <v>0.09413595712128074</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1599063516224421</v>
+        <v>0.1572481273343917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -3654,19 +3654,19 @@
         <v>53915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39910</v>
+        <v>40356</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70425</v>
+        <v>70132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1178554194734021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08724147212588591</v>
+        <v>0.0882165069714462</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1539452736095512</v>
+        <v>0.1533042505571483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -3675,19 +3675,19 @@
         <v>113256</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93466</v>
+        <v>92337</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>135083</v>
+        <v>136636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1209198816226664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09979039724802077</v>
+        <v>0.09858585055252095</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1442234234518132</v>
+        <v>0.1458825071796042</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>289059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>265097</v>
+        <v>268422</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>310010</v>
+        <v>313585</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6032743568025035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5532656623002469</v>
+        <v>0.5602045234804525</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6470001675921503</v>
+        <v>0.6544614699183446</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>268</v>
@@ -3725,19 +3725,19 @@
         <v>295817</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>273254</v>
+        <v>273495</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>317686</v>
+        <v>318137</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.64663625459112</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5973148762413454</v>
+        <v>0.5978428405677549</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6944402626138875</v>
+        <v>0.6954267912496647</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>532</v>
@@ -3746,19 +3746,19 @@
         <v>584876</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>553645</v>
+        <v>553329</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>613381</v>
+        <v>616455</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6244534692023117</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5911090717747932</v>
+        <v>0.59077216340436</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6548881984190407</v>
+        <v>0.6581696617976179</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>110623</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>92528</v>
+        <v>91377</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>131135</v>
+        <v>130948</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2308733247053163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1931080235924816</v>
+        <v>0.1907059131562377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2736829234472023</v>
+        <v>0.2732915018305826</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -3796,19 +3796,19 @@
         <v>83667</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66382</v>
+        <v>67929</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101906</v>
+        <v>104618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1828916629282103</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1451069195531876</v>
+        <v>0.1484874978595671</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2227595851249112</v>
+        <v>0.2286883012965945</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>173</v>
@@ -3817,19 +3817,19 @@
         <v>194290</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>170466</v>
+        <v>167728</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>221658</v>
+        <v>219780</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2074377958255427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1820011682561194</v>
+        <v>0.1790776985538332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2366569815218329</v>
+        <v>0.2346517940328723</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>12540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6751</v>
+        <v>5695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23932</v>
+        <v>23227</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02617125973859784</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01408864800993868</v>
+        <v>0.01188593641055628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04994747176076416</v>
+        <v>0.04847610876942043</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -3867,19 +3867,19 @@
         <v>9885</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5039</v>
+        <v>5045</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18688</v>
+        <v>18475</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02160890696122352</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01101469758961406</v>
+        <v>0.01102820467642003</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04085020699619201</v>
+        <v>0.04038573311915654</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -3888,19 +3888,19 @@
         <v>22425</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14108</v>
+        <v>12427</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34589</v>
+        <v>33457</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02394288443199503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01506229214381242</v>
+        <v>0.01326824219237663</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03692970070713344</v>
+        <v>0.03572097321945655</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>47513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35167</v>
+        <v>35536</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63115</v>
+        <v>63399</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01392620147699487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01030758085843429</v>
+        <v>0.01041568086971015</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0184992403392162</v>
+        <v>0.01858254693829925</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -4013,19 +4013,19 @@
         <v>61874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45285</v>
+        <v>46441</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78415</v>
+        <v>80316</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01747699515186013</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01279120459000727</v>
+        <v>0.01311776708589894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02214935259410391</v>
+        <v>0.02268615381352577</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -4034,19 +4034,19 @@
         <v>109387</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89685</v>
+        <v>87132</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133952</v>
+        <v>131605</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01573442244694954</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01290045322410726</v>
+        <v>0.01253322154301672</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01926794678485064</v>
+        <v>0.01893031770634416</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>281636</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>249200</v>
+        <v>251082</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>312568</v>
+        <v>319728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08254831382753862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07304125082265946</v>
+        <v>0.07359287982528361</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09161470913189061</v>
+        <v>0.09371341185543221</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -4084,19 +4084,19 @@
         <v>313040</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>279713</v>
+        <v>282206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>351808</v>
+        <v>349790</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08842183349481245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07900824503959523</v>
+        <v>0.07971250180514049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09937236230049376</v>
+        <v>0.09880236666447596</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>558</v>
@@ -4105,19 +4105,19 @@
         <v>594676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>550763</v>
+        <v>547710</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>645690</v>
+        <v>641500</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08553936946250415</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0792228357714099</v>
+        <v>0.07878380913576997</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09287742388081378</v>
+        <v>0.09227468459463077</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>2084361</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2026713</v>
+        <v>2018089</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2141503</v>
+        <v>2142885</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6109328256426854</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5940360659584005</v>
+        <v>0.5915083671746389</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6276813513349647</v>
+        <v>0.6280863365725038</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2007</v>
@@ -4155,19 +4155,19 @@
         <v>2164499</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2105171</v>
+        <v>2109946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2223591</v>
+        <v>2232346</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6113885133622335</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5946307449217499</v>
+        <v>0.5959794153298993</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6280796919584897</v>
+        <v>0.6305528750514617</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3961</v>
@@ -4176,19 +4176,19 @@
         <v>4248860</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4168818</v>
+        <v>4161468</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4330715</v>
+        <v>4331777</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6111648819561993</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5996515591803754</v>
+        <v>0.5985943027235756</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6229390940229773</v>
+        <v>0.623091856812655</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>919105</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>869156</v>
+        <v>870106</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>974644</v>
+        <v>981998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2693926677211501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2547525176937666</v>
+        <v>0.255030831013169</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2856711620442197</v>
+        <v>0.2878267413471288</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>834</v>
@@ -4226,19 +4226,19 @@
         <v>899503</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>847441</v>
+        <v>845797</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>952432</v>
+        <v>954604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2540752253426128</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2393699461046344</v>
+        <v>0.2389054555031409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2690259095672984</v>
+        <v>0.269639166182138</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1690</v>
@@ -4247,19 +4247,19 @@
         <v>1818608</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1739339</v>
+        <v>1742820</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1897777</v>
+        <v>1890286</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2615923495244037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2501901399760494</v>
+        <v>0.2506909150261801</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2729802292479997</v>
+        <v>0.2719026776128814</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>79153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62815</v>
+        <v>61985</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100145</v>
+        <v>99480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02319999133163098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0184112564563975</v>
+        <v>0.01816787645545079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02935290102686055</v>
+        <v>0.02915795958320018</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>94</v>
@@ -4297,19 +4297,19 @@
         <v>101385</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>81217</v>
+        <v>81612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123506</v>
+        <v>124397</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02863743264848109</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02294068594643777</v>
+        <v>0.02305215341908344</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03488584138990232</v>
+        <v>0.0351375535231196</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>167</v>
@@ -4318,19 +4318,19 @@
         <v>180538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154687</v>
+        <v>156306</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209054</v>
+        <v>211800</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02596897660994327</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0222504717286749</v>
+        <v>0.02248344623652272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03007079549368978</v>
+        <v>0.03046574275185294</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>7395</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2914</v>
+        <v>2857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14263</v>
+        <v>13599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009830751619287491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003873897438181611</v>
+        <v>0.003798613470077165</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01896162085747614</v>
+        <v>0.0180784289772098</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4682,19 +4682,19 @@
         <v>10304</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4636</v>
+        <v>4606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18322</v>
+        <v>19177</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01038381554647279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004671573610026495</v>
+        <v>0.004642154738966215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01846408012407213</v>
+        <v>0.01932564834164677</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4703,19 +4703,19 @@
         <v>17699</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10762</v>
+        <v>10148</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29544</v>
+        <v>27743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01014534105078521</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006169297606794516</v>
+        <v>0.005817297845004956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01693552278445086</v>
+        <v>0.01590282108136423</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>42949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31049</v>
+        <v>31497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58448</v>
+        <v>57594</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05709651073261186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04127752108771365</v>
+        <v>0.04187187452291703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07770086849565196</v>
+        <v>0.07656576688927844</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -4753,19 +4753,19 @@
         <v>61445</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47147</v>
+        <v>46439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80955</v>
+        <v>78670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06192241350270673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04751286527071402</v>
+        <v>0.04679940409958675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0815836091752139</v>
+        <v>0.07928088416363582</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -4774,19 +4774,19 @@
         <v>104394</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86173</v>
+        <v>84938</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>126574</v>
+        <v>125998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05984154242656786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04939674017457007</v>
+        <v>0.048688467469103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07255580070284125</v>
+        <v>0.07222538224869235</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>387128</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>358171</v>
+        <v>361740</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>415500</v>
+        <v>415055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5146529191390274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4761571400270284</v>
+        <v>0.4809013188937592</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5523711832186968</v>
+        <v>0.5517792030051248</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>488</v>
@@ -4824,19 +4824,19 @@
         <v>544128</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>510902</v>
+        <v>508652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>576866</v>
+        <v>577536</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5483512551122784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5148678758214524</v>
+        <v>0.5126004845745519</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5813439401690137</v>
+        <v>0.5820190160143716</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>880</v>
@@ -4845,19 +4845,19 @@
         <v>931256</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>890239</v>
+        <v>888392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>974919</v>
+        <v>972212</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5338209390281503</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5103088638414393</v>
+        <v>0.5092503401192767</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5588494802664865</v>
+        <v>0.5572979670911288</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>296452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>268587</v>
+        <v>271549</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>324324</v>
+        <v>321921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3941064523117334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3570630862762622</v>
+        <v>0.3610003710689667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4311607843889314</v>
+        <v>0.4279657404183363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>317</v>
@@ -4895,19 +4895,19 @@
         <v>351377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>320322</v>
+        <v>321182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>383868</v>
+        <v>384623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3541040098133638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3228085266239459</v>
+        <v>0.3236746436410457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3868474614024145</v>
+        <v>0.3876087162977679</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>619</v>
@@ -4916,19 +4916,19 @@
         <v>647828</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>605323</v>
+        <v>609301</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>687479</v>
+        <v>687718</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3713525806062911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3469875442967955</v>
+        <v>0.3492677799253245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.394081602831972</v>
+        <v>0.3942187097683248</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>18289</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10626</v>
+        <v>10892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28671</v>
+        <v>29055</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02431336619733974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01412618219853186</v>
+        <v>0.01448040947065343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03811560496281893</v>
+        <v>0.03862551047526844</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -4966,19 +4966,19 @@
         <v>25044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16340</v>
+        <v>16334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36664</v>
+        <v>37207</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02523850602517825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.016466524234881</v>
+        <v>0.01646121800956993</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03694824390434381</v>
+        <v>0.03749540077469428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -4987,19 +4987,19 @@
         <v>43333</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31420</v>
+        <v>31047</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60259</v>
+        <v>58990</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02483959688820544</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01801055368383693</v>
+        <v>0.01779687389499726</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03454232864343666</v>
+        <v>0.03381461907793483</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>24324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15897</v>
+        <v>14547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36943</v>
+        <v>35499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01177838873976212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007697656827870701</v>
+        <v>0.007044213381844263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0178888572974013</v>
+        <v>0.01718959942724189</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5112,19 +5112,19 @@
         <v>36517</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25828</v>
+        <v>26644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50708</v>
+        <v>49209</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01845556368257323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01305347104161726</v>
+        <v>0.01346590235891971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02562788899612457</v>
+        <v>0.02487044498707033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -5133,19 +5133,19 @@
         <v>60841</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47061</v>
+        <v>45491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77909</v>
+        <v>78401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01504556459220822</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01163795117427445</v>
+        <v>0.01124970245869112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01926657774508843</v>
+        <v>0.01938825041122704</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>227326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200608</v>
+        <v>200573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257250</v>
+        <v>258978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1100783823389533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09714061520798063</v>
+        <v>0.09712382638089025</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1245684931558223</v>
+        <v>0.1254052950044574</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -5183,19 +5183,19 @@
         <v>214622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189057</v>
+        <v>188941</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245282</v>
+        <v>245848</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1084698517183087</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09554935685743494</v>
+        <v>0.09549075940630883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1239655503912583</v>
+        <v>0.1242514697422515</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>419</v>
@@ -5204,19 +5204,19 @@
         <v>441948</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>404056</v>
+        <v>402651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>483359</v>
+        <v>480554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1092913200788356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09992102315197071</v>
+        <v>0.09957342479512633</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1195321112204474</v>
+        <v>0.1188384908471676</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>1153534</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1107798</v>
+        <v>1106094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1195760</v>
+        <v>1197477</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5585776500500378</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5364309543985779</v>
+        <v>0.5356057217471974</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5790250234616956</v>
+        <v>0.5798565298776566</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1010</v>
@@ -5254,19 +5254,19 @@
         <v>1045955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1000533</v>
+        <v>1000457</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1093722</v>
+        <v>1091478</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5286253339291331</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5056690326121238</v>
+        <v>0.5056309056002076</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5527667599601686</v>
+        <v>0.551632671784826</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2097</v>
@@ -5275,19 +5275,19 @@
         <v>2199488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2136160</v>
+        <v>2135773</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2262235</v>
+        <v>2265135</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.543921828569666</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5282611277126087</v>
+        <v>0.5281652631371744</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.559438776541072</v>
+        <v>0.5601560407223325</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>612525</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>571679</v>
+        <v>574243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>658132</v>
+        <v>659984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2966038549583878</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2768249705671308</v>
+        <v>0.2780665483355025</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3186885522529819</v>
+        <v>0.3195851533537291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>600</v>
@@ -5325,19 +5325,19 @@
         <v>629346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>588010</v>
+        <v>584236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>670492</v>
+        <v>667723</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3180714485035839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2971799376050523</v>
+        <v>0.2952725229810392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3388664232050407</v>
+        <v>0.3374667928040314</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1176</v>
@@ -5346,19 +5346,19 @@
         <v>1241871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1177347</v>
+        <v>1183923</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1299187</v>
+        <v>1305018</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.307108058284153</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2911515990179176</v>
+        <v>0.2927779767676837</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3212821996178283</v>
+        <v>0.3227239421547303</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>47419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35469</v>
+        <v>35404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63488</v>
+        <v>64526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02296172391285901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01717541522597418</v>
+        <v>0.01714355447707887</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03074301702073257</v>
+        <v>0.03124553452162577</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -5396,19 +5396,19 @@
         <v>52192</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38563</v>
+        <v>38912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67540</v>
+        <v>70815</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02637780216640103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01948989362311293</v>
+        <v>0.01966627692913783</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03413449848604841</v>
+        <v>0.03579000118438527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -5417,19 +5417,19 @@
         <v>99611</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80639</v>
+        <v>81408</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121841</v>
+        <v>123952</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02463322847513726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01994167802816967</v>
+        <v>0.02013182993365582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03013070503479629</v>
+        <v>0.03065272684312209</v>
       </c>
     </row>
     <row r="15">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8086</v>
+        <v>7462</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003934543993932694</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01485942451204839</v>
+        <v>0.01371392676472364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -5542,19 +5542,19 @@
         <v>9108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4226</v>
+        <v>4197</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16384</v>
+        <v>16840</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01658581981507456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00769580702999093</v>
+        <v>0.007643002313177727</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02983657047252905</v>
+        <v>0.03066638344114138</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -5563,19 +5563,19 @@
         <v>11249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5925</v>
+        <v>5151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20282</v>
+        <v>18901</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01028912864700474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005419840417293793</v>
+        <v>0.004711773305807384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0185516722779984</v>
+        <v>0.01728810103171492</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>69193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53784</v>
+        <v>53540</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86680</v>
+        <v>86493</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1271610055417584</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09884216190716036</v>
+        <v>0.0983935896069664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1592989841515218</v>
+        <v>0.1589547052582611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -5613,19 +5613,19 @@
         <v>73529</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57243</v>
+        <v>58317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89649</v>
+        <v>91495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1338982100409161</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1042418597623044</v>
+        <v>0.1061964376806464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1632530548645476</v>
+        <v>0.1666154828578297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -5634,19 +5634,19 @@
         <v>142722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120496</v>
+        <v>120336</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166073</v>
+        <v>168132</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1305450228472234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.110215437331014</v>
+        <v>0.1100690065731246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1519040645414394</v>
+        <v>0.1537865957880068</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>317418</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>293067</v>
+        <v>295721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>340491</v>
+        <v>343396</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5833414803942883</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5385911397162012</v>
+        <v>0.5434678872449591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6257454323142527</v>
+        <v>0.6310828723628416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>325</v>
@@ -5684,19 +5684,19 @@
         <v>340994</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>318004</v>
+        <v>318449</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>365532</v>
+        <v>363170</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.620960238752264</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5790942345161704</v>
+        <v>0.5799049060980939</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6656442228676571</v>
+        <v>0.6613433296069361</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>619</v>
@@ -5705,19 +5705,19 @@
         <v>658412</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>622998</v>
+        <v>623931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>688413</v>
+        <v>692059</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.602236933146155</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5698445074303188</v>
+        <v>0.57069737175929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6296781693985929</v>
+        <v>0.6330132341174384</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>146513</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126019</v>
+        <v>125796</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>168430</v>
+        <v>168297</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2692568381510613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2315950738519588</v>
+        <v>0.2311844227488762</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3095360261312814</v>
+        <v>0.3092910272004965</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -5755,19 +5755,19 @@
         <v>119025</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>100409</v>
+        <v>99965</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>138894</v>
+        <v>138706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2167481992083723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1828476555914159</v>
+        <v>0.1820398994297321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.252930118324905</v>
+        <v>0.2525870800746209</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>250</v>
@@ -5776,19 +5776,19 @@
         <v>265538</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>237359</v>
+        <v>235671</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>294251</v>
+        <v>295718</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2428823763263253</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2171080712817426</v>
+        <v>0.2155632789919706</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2691454985601704</v>
+        <v>0.27048744726253</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>8873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4221</v>
+        <v>4190</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16710</v>
+        <v>15808</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01630613191895924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007756780502204192</v>
+        <v>0.007701086209110752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03071005561807217</v>
+        <v>0.02905163186120134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -5826,19 +5826,19 @@
         <v>6484</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2321</v>
+        <v>2444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13825</v>
+        <v>13398</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01180753218337298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004226867832421736</v>
+        <v>0.004450748290029386</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0251760221559769</v>
+        <v>0.02439832180430812</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -5847,19 +5847,19 @@
         <v>15357</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8428</v>
+        <v>8658</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24672</v>
+        <v>24878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01404653903329166</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007708699867451817</v>
+        <v>0.007919186565900606</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02256733736787047</v>
+        <v>0.02275577068746001</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>33860</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22910</v>
+        <v>23358</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47482</v>
+        <v>47287</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01007283882717167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006815354821062468</v>
+        <v>0.006948612179030776</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01412529533651634</v>
+        <v>0.0140671978355489</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -5972,19 +5972,19 @@
         <v>55929</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41666</v>
+        <v>40630</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72459</v>
+        <v>72160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01588847492851232</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01183677427488035</v>
+        <v>0.01154248931272881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02058460682023879</v>
+        <v>0.02049945836065997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>84</v>
@@ -5993,19 +5993,19 @@
         <v>89788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72325</v>
+        <v>72878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>110657</v>
+        <v>111596</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01304767146142107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01050992439892022</v>
+        <v>0.01059037496465144</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01608026865550287</v>
+        <v>0.01621663939524381</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>339468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>299944</v>
+        <v>306075</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>379022</v>
+        <v>378507</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1009876485167059</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08922986044131041</v>
+        <v>0.0910538865865545</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1127546619022686</v>
+        <v>0.1126015513188847</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>332</v>
@@ -6043,19 +6043,19 @@
         <v>349596</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>311465</v>
+        <v>315261</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>389100</v>
+        <v>385268</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09931514822401896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08848255336054235</v>
+        <v>0.08956093853655686</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1105374577401142</v>
+        <v>0.1094490842293193</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>645</v>
@@ -6064,19 +6064,19 @@
         <v>689064</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>635040</v>
+        <v>640033</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>743962</v>
+        <v>747001</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.100132125859377</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09228160380881077</v>
+        <v>0.09300713161041939</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1081097231392557</v>
+        <v>0.1085513874643652</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>1858080</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1802636</v>
+        <v>1801942</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1920901</v>
+        <v>1914384</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5527570627394072</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5362631264625857</v>
+        <v>0.5360568914488686</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5714457282060268</v>
+        <v>0.5695068978253548</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1823</v>
@@ -6114,19 +6114,19 @@
         <v>1931077</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1872195</v>
+        <v>1866908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1997278</v>
+        <v>1992792</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5485905093479634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5318630269170213</v>
+        <v>0.5303609079286401</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5673972946076362</v>
+        <v>0.5661227376991594</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3596</v>
@@ -6135,19 +6135,19 @@
         <v>3789157</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3710986</v>
+        <v>3704551</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3874920</v>
+        <v>3869312</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.550625774126223</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5392662858077898</v>
+        <v>0.5383311489462945</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5630886155645569</v>
+        <v>0.562273610140225</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>1055489</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1002254</v>
+        <v>1002255</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1112034</v>
+        <v>1115458</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3139956344002625</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2981588723520991</v>
+        <v>0.2981591096528537</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3308172741316506</v>
+        <v>0.3318357785412554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1032</v>
@@ -6185,19 +6185,19 @@
         <v>1099748</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1046612</v>
+        <v>1044254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1156904</v>
+        <v>1156841</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3124222309022344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2973271736019783</v>
+        <v>0.2966572747356667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3286594151971587</v>
+        <v>0.3286414954798826</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2045</v>
@@ -6206,19 +6206,19 @@
         <v>2155237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2072495</v>
+        <v>2081965</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2230250</v>
+        <v>2231354</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3131908020498173</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3011670177911454</v>
+        <v>0.302543197585501</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3240914739800091</v>
+        <v>0.32425181507956</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>74580</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58296</v>
+        <v>57520</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>92703</v>
+        <v>93462</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02218681551645283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01734245078098275</v>
+        <v>0.017111444082341</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02757799879660731</v>
+        <v>0.02780381803354786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -6256,19 +6256,19 @@
         <v>83720</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67386</v>
+        <v>65766</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104717</v>
+        <v>103841</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02378363659727091</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01914331507554318</v>
+        <v>0.01868302969599661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0297484262431225</v>
+        <v>0.02949980906699824</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -6277,19 +6277,19 @@
         <v>158301</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>132271</v>
+        <v>132064</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>182859</v>
+        <v>184362</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02300362650316157</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01922111077441808</v>
+        <v>0.01919098044057764</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02657241610341411</v>
+        <v>0.02679074455572568</v>
       </c>
     </row>
     <row r="27">
